--- a/com.my.test/src/main/resources/异常信息.xlsx
+++ b/com.my.test/src/main/resources/异常信息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
   <si>
     <t>序号</t>
   </si>
@@ -292,21 +292,118 @@
   <si>
     <t>OBjectMapper一个类只能有一个序列化器和反序列化器</t>
   </si>
+  <si>
+    <t>outofDirectMemoryError</t>
+  </si>
+  <si>
+    <t>netty堆外内存溢出</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -321,13 +418,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -342,17 +432,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,28 +449,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,30 +459,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -429,37 +466,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -473,19 +479,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,31 +635,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,127 +653,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,39 +688,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -726,6 +699,39 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,15 +753,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -765,17 +762,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,10 +793,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -799,137 +805,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -952,9 +958,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1352,12 +1355,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1743,13 +1746,24 @@
       <c r="A26" s="1">
         <v>18</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="8"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>19</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/com.my.test/src/main/resources/异常信息.xlsx
+++ b/com.my.test/src/main/resources/异常信息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
   <si>
     <t>序号</t>
   </si>
@@ -298,16 +298,26 @@
   <si>
     <t>netty堆外内存溢出</t>
   </si>
+  <si>
+    <t xml:space="preserve"> orderLogisticsVOS.stream()
+                        .filter(o -&gt; CollectionUtils.isNotEmpty(o.getOrderLogisticsDetailVOS()))
+                        .flatMap(o -&gt; o.getOrderLogisticsDetailVOS().stream())
+                        .filter(o -&gt; platformOrderDetailDTOMap.containsKey(o.getBizId()))
+                        .forEach(o -&gt; o.fillOrderDetailInfo(platformOrderDetailDTOMap.get(o.getBizId())));</t>
+  </si>
+  <si>
+    <t>streamApi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -315,6 +325,56 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,51 +387,48 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,76 +444,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,6 +454,28 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -479,12 +489,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -497,13 +579,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,78 +651,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -599,67 +663,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,6 +698,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -699,6 +748,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,8 +778,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -735,56 +795,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -793,10 +803,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -805,137 +815,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -958,6 +968,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1355,12 +1368,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1763,6 +1776,20 @@
       </c>
       <c r="D27" s="2" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="28" ht="351" spans="1:5">
+      <c r="A28" s="1">
+        <v>20</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/com.my.test/src/main/resources/异常信息.xlsx
+++ b/com.my.test/src/main/resources/异常信息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
   <si>
     <t>序号</t>
   </si>
@@ -308,6 +308,31 @@
   <si>
     <t>streamApi</t>
   </si>
+  <si>
+    <t>String.format(applyNoValuePrefix + timePart + "%05d", no)</t>
+  </si>
+  <si>
+    <t>format方法占位换行</t>
+  </si>
+  <si>
+    <t>1.1private final Object; 相当于没有初始化。 1.2private final Object a =null；相当于已经赋值并初始化，不能被set值</t>
+  </si>
+  <si>
+    <r>
+      <t>就是配合lombok.RequiredArgsConstructor注解时候发现。注意：该注解是默认生成带</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>参数构造器</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -316,8 +341,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -328,6 +353,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -344,7 +377,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,22 +428,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,63 +483,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -454,28 +501,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -489,43 +514,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,139 +682,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,9 +725,59 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,21 +793,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,41 +815,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -803,10 +828,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -815,19 +840,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -836,116 +861,116 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -971,6 +996,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1368,12 +1396,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1782,14 +1810,36 @@
       <c r="A28" s="1">
         <v>20</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="8" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="29" ht="54" spans="1:4">
+      <c r="A29" s="1">
+        <v>21</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" ht="148.5" spans="1:4">
+      <c r="A30" s="1">
+        <v>22</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/com.my.test/src/main/resources/异常信息.xlsx
+++ b/com.my.test/src/main/resources/异常信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="18600" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="2021的bug" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
   <si>
     <t>序号</t>
   </si>
@@ -319,6 +319,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>就是配合lombok.RequiredArgsConstructor注解时候发现。注意：该注解是默认生成带</t>
     </r>
     <r>
@@ -333,16 +340,40 @@
       <t>参数构造器</t>
     </r>
   </si>
+  <si>
+    <t>http://mirrors.aliyun.com/centos/6/os/x86_64/repodata/repomd.xml: [Errno 14] PYCURL ERROR 22 - “The requested URL returned error: 404 Not Found”
+Trying other mirror.
+http://mirrors.aliyuncs.com/centos/6/os/x86_64/repodata/repomd.xml: [Errno 14] PYCURL ERROR 7 - “couldn’t connect to host”
+Trying other mirror.
+http://mirrors.cloud.aliyuncs.com/centos/6/os/x86_64/repodata/repomd.xml: [Errno 14] PYCURL ERROR 6 - “Couldn’t resolve host ‘mirrors.cloud.aliyuncs.com’”
+Trying other mirror.
+Error: Cannot retrieve repository metadata (repomd.xml) for repository: base. Please verify its path and try again
+————————————————
+版权声明：本文为CSDN博主「SYY96」的原创文章，遵循CC 4.0 BY-SA版权协议，转载请附上原文出处链接及本声明。
+原文链接：https://blog.csdn.net/qq_43414199/article/details/111300080</t>
+  </si>
+  <si>
+    <t>cd /etc/yum.repos.d
+vi CentOS-Base.repo
+:%s/$releasever/7/g #将文件中$releasever全部改成7
+yum clean all &amp;&amp; yum makecache # 清除和缓存</t>
+  </si>
+  <si>
+    <t>yum 更新发现镜像404,是因为这个版本centos6的镜像已经没有了,只能选7的了</t>
+  </si>
+  <si>
+    <t>linux</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -357,6 +388,135 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -370,135 +530,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -514,49 +545,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,127 +713,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,13 +754,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,38 +796,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -815,8 +820,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,10 +859,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -840,137 +871,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -996,9 +1027,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1092,8 +1120,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4713605" y="9263380"/>
-          <a:ext cx="6715760" cy="2623820"/>
+          <a:off x="4475480" y="9263380"/>
+          <a:ext cx="6315710" cy="2623820"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1396,18 +1424,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="17.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.6283185840708" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
     <col min="4" max="5" width="9" style="2"/>
   </cols>
@@ -1721,7 +1749,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" ht="108" spans="1:5">
+    <row r="22" ht="121.5" spans="1:5">
       <c r="A22" s="1">
         <v>14</v>
       </c>
@@ -1769,7 +1797,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" ht="81" spans="1:5">
+    <row r="25" ht="67.5" spans="1:5">
       <c r="A25" s="1">
         <v>17</v>
       </c>
@@ -1813,10 +1841,10 @@
       <c r="B28" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1835,11 +1863,25 @@
       <c r="A30" s="1">
         <v>22</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="7" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="31" ht="409.5" spans="2:5">
+      <c r="B31" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/com.my.test/src/main/resources/异常信息.xlsx
+++ b/com.my.test/src/main/resources/异常信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="8040"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="2021的bug" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="94">
   <si>
     <t>序号</t>
   </si>
@@ -364,18 +364,134 @@
   <si>
     <t>linux</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多线程任务分步:定时器1先按照状态查出"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>未操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"的数据 2开异步线程(线程池方式)然后操作更新数据,把状态更新为"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>已操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" 。但是这种方式的执行任务，通常会造成任务排队。线程池来不及处理，然后定时器发起异步，就会有多个相同的任务在同一个队列。</t>
+    </r>
+  </si>
+  <si>
+    <t>造成重复签收</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>引用异步的时候1.直接
+（使用状态进行</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>事务锁）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>更新数据的状态未“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>已操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">”，2.获取锁定数字&gt;0。3.只要锁定数字&gt;0,事务能锁到数据
+</t>
+    </r>
+  </si>
+  <si>
+    <t>maven 私库包管理:</t>
+  </si>
+  <si>
+    <t>1.查看方式一</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,6 +500,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -391,10 +544,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -408,67 +624,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -482,41 +637,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -524,13 +648,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -545,187 +682,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,50 +891,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,11 +915,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,6 +955,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -859,10 +996,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -871,133 +1008,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1026,8 +1163,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1120,8 +1257,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4475480" y="9263380"/>
-          <a:ext cx="6315710" cy="2623820"/>
+          <a:off x="4713605" y="9263380"/>
+          <a:ext cx="6715760" cy="2623820"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1424,18 +1561,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="17.6283185840708" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
     <col min="4" max="5" width="9" style="2"/>
   </cols>
@@ -1749,7 +1886,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" ht="121.5" spans="1:5">
+    <row r="22" ht="108" spans="1:5">
       <c r="A22" s="1">
         <v>14</v>
       </c>
@@ -1797,7 +1934,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" ht="67.5" spans="1:5">
+    <row r="25" ht="81" spans="1:5">
       <c r="A25" s="1">
         <v>17</v>
       </c>
@@ -1871,17 +2008,36 @@
       </c>
     </row>
     <row r="31" ht="409.5" spans="2:5">
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="3" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="32" ht="409.5" spans="1:3">
+      <c r="A32" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
